--- a/Test Data Driven/AI-Generated/TestCase-00001.xlsx
+++ b/Test Data Driven/AI-Generated/TestCase-00001.xlsx
@@ -471,17 +471,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>andersonjason</t>
+          <t>cbean</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>kathleen33</t>
+          <t>aguilardeanna</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>kellydiana</t>
+          <t>ymoore</t>
         </is>
       </c>
     </row>

--- a/Test Data Driven/AI-Generated/TestCase-00001.xlsx
+++ b/Test Data Driven/AI-Generated/TestCase-00001.xlsx
@@ -471,17 +471,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>cbean</t>
+          <t>andersonmeagan</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>aguilardeanna</t>
+          <t>daughertycraig</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>ymoore</t>
+          <t>lauren58</t>
         </is>
       </c>
     </row>

--- a/Test Data Driven/AI-Generated/TestCase-00001.xlsx
+++ b/Test Data Driven/AI-Generated/TestCase-00001.xlsx
@@ -471,17 +471,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>andersonmeagan</t>
+          <t>crosbymichael</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>daughertycraig</t>
+          <t>rebeccawalker</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>lauren58</t>
+          <t>charlesparsons</t>
         </is>
       </c>
     </row>

--- a/Test Data Driven/AI-Generated/TestCase-00001.xlsx
+++ b/Test Data Driven/AI-Generated/TestCase-00001.xlsx
@@ -471,17 +471,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>crosbymichael</t>
+          <t>areeves</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>rebeccawalker</t>
+          <t>smithoscar</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>charlesparsons</t>
+          <t>archerreginald</t>
         </is>
       </c>
     </row>

--- a/Test Data Driven/AI-Generated/TestCase-00001.xlsx
+++ b/Test Data Driven/AI-Generated/TestCase-00001.xlsx
@@ -471,17 +471,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>areeves</t>
+          <t>connerrobert</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>smithoscar</t>
+          <t>knoxjared</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>archerreginald</t>
+          <t>adam90</t>
         </is>
       </c>
     </row>

--- a/Test Data Driven/AI-Generated/TestCase-00001.xlsx
+++ b/Test Data Driven/AI-Generated/TestCase-00001.xlsx
@@ -471,17 +471,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>connerrobert</t>
+          <t>dennissingh</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>knoxjared</t>
+          <t>dmclaughlin</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>adam90</t>
+          <t>toddsmith</t>
         </is>
       </c>
     </row>

--- a/Test Data Driven/AI-Generated/TestCase-00001.xlsx
+++ b/Test Data Driven/AI-Generated/TestCase-00001.xlsx
@@ -471,17 +471,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>dennissingh</t>
+          <t>tombailey</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>dmclaughlin</t>
+          <t>sandradunn</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>toddsmith</t>
+          <t>jordangood</t>
         </is>
       </c>
     </row>

--- a/Test Data Driven/AI-Generated/TestCase-00001.xlsx
+++ b/Test Data Driven/AI-Generated/TestCase-00001.xlsx
@@ -471,17 +471,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>tombailey</t>
+          <t>samuel88</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>sandradunn</t>
+          <t>jessesoto</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>jordangood</t>
+          <t>markduke</t>
         </is>
       </c>
     </row>

--- a/Test Data Driven/AI-Generated/TestCase-00001.xlsx
+++ b/Test Data Driven/AI-Generated/TestCase-00001.xlsx
@@ -471,17 +471,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>samuel88</t>
+          <t>grayraymond</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>jessesoto</t>
+          <t>shannonanderson</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>markduke</t>
+          <t>danielmartinez</t>
         </is>
       </c>
     </row>

--- a/Test Data Driven/AI-Generated/TestCase-00001.xlsx
+++ b/Test Data Driven/AI-Generated/TestCase-00001.xlsx
@@ -471,17 +471,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>grayraymond</t>
+          <t>akelly</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>shannonanderson</t>
+          <t>sherririvers</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>danielmartinez</t>
+          <t>david74</t>
         </is>
       </c>
     </row>
